--- a/tmp/LEBDEF25/LEBDEF25-recap-detailed.xlsx
+++ b/tmp/LEBDEF25/LEBDEF25-recap-detailed.xlsx
@@ -512,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -528,10 +528,10 @@
         <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>5169</v>
+        <v>5069</v>
       </c>
       <c r="D5" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +544,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>3741</v>
+        <v>3668</v>
       </c>
       <c r="D6" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1672</v>
+        <v>1646</v>
       </c>
       <c r="D7" t="n">
         <v>42</v>
@@ -576,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>1030</v>
+        <v>1004</v>
       </c>
       <c r="D8" t="n">
         <v>26</v>
@@ -592,10 +592,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>2418</v>
+        <v>2380</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D12" t="n">
         <v>9</v>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="D13" t="n">
         <v>21</v>
@@ -672,10 +672,10 @@
         <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>1916</v>
+        <v>1876</v>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D17" t="n">
         <v>11</v>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="D19" t="n">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D20" t="n">
         <v>7</v>
@@ -784,10 +784,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>1003</v>
+        <v>969</v>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -800,10 +800,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -816,7 +816,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="D23" t="n">
         <v>34</v>
@@ -832,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D24" t="n">
         <v>16</v>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -864,10 +864,10 @@
         <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>4749</v>
+        <v>4634</v>
       </c>
       <c r="D26" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D27" t="n">
         <v>5</v>
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="D28" t="n">
         <v>20</v>
@@ -912,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D29" t="n">
         <v>7</v>
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D30" t="n">
         <v>16</v>
@@ -944,10 +944,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>1693</v>
+        <v>1655</v>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D32" t="n">
         <v>4</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
@@ -992,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D34" t="n">
         <v>6</v>
@@ -1008,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D35" t="n">
         <v>13</v>
